--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H2">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I2">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J2">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N2">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O2">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P2">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q2">
-        <v>12.03275451721125</v>
+        <v>41.60694155442</v>
       </c>
       <c r="R2">
-        <v>48.13101806884499</v>
+        <v>166.42776621768</v>
       </c>
       <c r="S2">
-        <v>0.01761279149407933</v>
+        <v>0.04267908148330694</v>
       </c>
       <c r="T2">
-        <v>0.01024820468108547</v>
+        <v>0.02645832356250933</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H3">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I3">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J3">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>53.453339</v>
       </c>
       <c r="O3">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P3">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q3">
-        <v>6.749864926674166</v>
+        <v>23.64333836424267</v>
       </c>
       <c r="R3">
-        <v>40.499189560045</v>
+        <v>141.860030185456</v>
       </c>
       <c r="S3">
-        <v>0.009880028998901582</v>
+        <v>0.02425258687339669</v>
       </c>
       <c r="T3">
-        <v>0.008623212237807978</v>
+        <v>0.02255259843075035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H4">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I4">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J4">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N4">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O4">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P4">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q4">
-        <v>5.048810499839167</v>
+        <v>35.56385861444533</v>
       </c>
       <c r="R4">
-        <v>30.292862999035</v>
+        <v>213.383151686672</v>
       </c>
       <c r="S4">
-        <v>0.00739013220120067</v>
+        <v>0.0364802786016238</v>
       </c>
       <c r="T4">
-        <v>0.006450049736037948</v>
+        <v>0.03392318841033759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H5">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I5">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J5">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N5">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O5">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P5">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q5">
-        <v>6.3859781307225</v>
+        <v>17.472453359768</v>
       </c>
       <c r="R5">
-        <v>25.54391252289</v>
+        <v>69.889813439072</v>
       </c>
       <c r="S5">
-        <v>0.009347394326152463</v>
+        <v>0.01792268868596039</v>
       </c>
       <c r="T5">
-        <v>0.005438888566950295</v>
+        <v>0.01111093022348057</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H6">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I6">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J6">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N6">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O6">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P6">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q6">
-        <v>8.916735118196666</v>
+        <v>6.85467575496</v>
       </c>
       <c r="R6">
-        <v>53.50041070918</v>
+        <v>41.12805452976</v>
       </c>
       <c r="S6">
-        <v>0.01305175770187081</v>
+        <v>0.007031309059449672</v>
       </c>
       <c r="T6">
-        <v>0.01139147230764095</v>
+        <v>0.006538448475127812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3788275</v>
+        <v>1.326952</v>
       </c>
       <c r="H7">
-        <v>0.757655</v>
+        <v>2.653904</v>
       </c>
       <c r="I7">
-        <v>0.07061342889271996</v>
+        <v>0.1426351819553841</v>
       </c>
       <c r="J7">
-        <v>0.05378730327014564</v>
+        <v>0.1138525221884241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N7">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O7">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P7">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q7">
-        <v>9.107730094181667</v>
+        <v>13.910780169616</v>
       </c>
       <c r="R7">
-        <v>54.64638056509001</v>
+        <v>83.46468101769599</v>
       </c>
       <c r="S7">
-        <v>0.01333132417051511</v>
+        <v>0.01426923725164657</v>
       </c>
       <c r="T7">
-        <v>0.01163547574062301</v>
+        <v>0.01326903308621849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H8">
         <v>1.915376</v>
       </c>
       <c r="I8">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J8">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N8">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O8">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P8">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q8">
-        <v>20.279458078904</v>
+        <v>20.01904547332</v>
       </c>
       <c r="R8">
-        <v>121.676748473424</v>
+        <v>120.11427283992</v>
       </c>
       <c r="S8">
-        <v>0.02968379902089446</v>
+        <v>0.02053490213541272</v>
       </c>
       <c r="T8">
-        <v>0.02590778822714661</v>
+        <v>0.01909550532041283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H9">
         <v>1.915376</v>
       </c>
       <c r="I9">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J9">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>53.453339</v>
       </c>
       <c r="O9">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P9">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q9">
-        <v>11.37591584894044</v>
+        <v>11.37591584894045</v>
       </c>
       <c r="R9">
         <v>102.383242640464</v>
       </c>
       <c r="S9">
-        <v>0.01665135224149964</v>
+        <v>0.01166905380029297</v>
       </c>
       <c r="T9">
-        <v>0.02179975551300221</v>
+        <v>0.01627666478210851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H10">
         <v>1.915376</v>
       </c>
       <c r="I10">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J10">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N10">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O10">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P10">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q10">
-        <v>8.509035959585777</v>
+        <v>17.11143564537422</v>
       </c>
       <c r="R10">
-        <v>76.581323636272</v>
+        <v>154.002920808368</v>
       </c>
       <c r="S10">
-        <v>0.01245499324011319</v>
+        <v>0.01755236816073322</v>
       </c>
       <c r="T10">
-        <v>0.01630593141101612</v>
+        <v>0.02448304871790343</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H11">
         <v>1.915376</v>
       </c>
       <c r="I11">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J11">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N11">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O11">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P11">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q11">
-        <v>10.762637566448</v>
+        <v>8.406814470661335</v>
       </c>
       <c r="R11">
-        <v>64.575825398688</v>
+        <v>50.44088682396801</v>
       </c>
       <c r="S11">
-        <v>0.0157536739499716</v>
+        <v>0.008623443742893509</v>
       </c>
       <c r="T11">
-        <v>0.01374968373179216</v>
+        <v>0.008018982256980408</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H12">
         <v>1.915376</v>
       </c>
       <c r="I12">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J12">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N12">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O12">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P12">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q12">
-        <v>15.02786047629511</v>
+        <v>3.29810508816</v>
       </c>
       <c r="R12">
-        <v>135.250744286656</v>
+        <v>29.68294579344</v>
       </c>
       <c r="S12">
-        <v>0.02199683977534058</v>
+        <v>0.003383091631812976</v>
       </c>
       <c r="T12">
-        <v>0.02879800524344205</v>
+        <v>0.004718930031567235</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.6384586666666666</v>
+        <v>0.6384586666666667</v>
       </c>
       <c r="H13">
         <v>1.915376</v>
       </c>
       <c r="I13">
-        <v>0.1190086666348337</v>
+        <v>0.06862845686278926</v>
       </c>
       <c r="J13">
-        <v>0.1359760178291683</v>
+        <v>0.08216965969348369</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N13">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O13">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P13">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q13">
-        <v>15.34975473610311</v>
+        <v>6.693126925002668</v>
       </c>
       <c r="R13">
-        <v>138.147792624928</v>
+        <v>60.23814232502401</v>
       </c>
       <c r="S13">
-        <v>0.02246800840701423</v>
+        <v>0.006865597391643862</v>
       </c>
       <c r="T13">
-        <v>0.02941485370276911</v>
+        <v>0.009576528584511282</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H14">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I14">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J14">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N14">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O14">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P14">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q14">
-        <v>44.16925337029249</v>
+        <v>73.69994090579999</v>
       </c>
       <c r="R14">
-        <v>265.015520221755</v>
+        <v>442.1996454347999</v>
       </c>
       <c r="S14">
-        <v>0.06465218325092377</v>
+        <v>0.07559906269773382</v>
       </c>
       <c r="T14">
-        <v>0.05642792120067169</v>
+        <v>0.07029993590635561</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H15">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I15">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J15">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>53.453339</v>
       </c>
       <c r="O15">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P15">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q15">
-        <v>24.77707774517278</v>
+        <v>41.88033475090666</v>
       </c>
       <c r="R15">
-        <v>222.993699706555</v>
+        <v>376.92301275816</v>
       </c>
       <c r="S15">
-        <v>0.03626713264482532</v>
+        <v>0.04295951955623221</v>
       </c>
       <c r="T15">
-        <v>0.04748050568796384</v>
+        <v>0.05992239910657289</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H16">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I16">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J16">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N16">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O16">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P16">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q16">
-        <v>18.53292941919611</v>
+        <v>62.99560074221332</v>
       </c>
       <c r="R16">
-        <v>166.796364772765</v>
+        <v>566.96040667992</v>
       </c>
       <c r="S16">
-        <v>0.02712733989278136</v>
+        <v>0.06461888994292536</v>
       </c>
       <c r="T16">
-        <v>0.03551479596395144</v>
+        <v>0.09013412982692325</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H17">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I17">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J17">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N17">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O17">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P17">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q17">
-        <v>23.441339692385</v>
+        <v>30.94961398232</v>
       </c>
       <c r="R17">
-        <v>140.64803815431</v>
+        <v>185.69768389392</v>
       </c>
       <c r="S17">
-        <v>0.03431196304664164</v>
+        <v>0.03174713275429419</v>
       </c>
       <c r="T17">
-        <v>0.02994721368529484</v>
+        <v>0.02952181307803894</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H18">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I18">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J18">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N18">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O18">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P18">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q18">
-        <v>32.73112005302444</v>
+        <v>12.1419450504</v>
       </c>
       <c r="R18">
-        <v>294.58008047722</v>
+        <v>109.2775054536</v>
       </c>
       <c r="S18">
-        <v>0.04790976098091351</v>
+        <v>0.01245482226791569</v>
       </c>
       <c r="T18">
-        <v>0.06272289847231205</v>
+        <v>0.01737269965886304</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1.390581666666667</v>
+        <v>2.35048</v>
       </c>
       <c r="H19">
-        <v>4.171745</v>
+        <v>7.051439999999999</v>
       </c>
       <c r="I19">
-        <v>0.2592043598700904</v>
+        <v>0.2526550639981636</v>
       </c>
       <c r="J19">
-        <v>0.2961597474849552</v>
+        <v>0.3025068838437041</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N19">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O19">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P19">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q19">
-        <v>33.43221517423444</v>
+        <v>24.64068826384</v>
       </c>
       <c r="R19">
-        <v>300.88993656811</v>
+        <v>221.76619437456</v>
       </c>
       <c r="S19">
-        <v>0.04893598005400485</v>
+        <v>0.02527563677906227</v>
       </c>
       <c r="T19">
-        <v>0.06406641247476137</v>
+        <v>0.03525590626695031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H20">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I20">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J20">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N20">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O20">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P20">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q20">
-        <v>51.756972163167</v>
+        <v>102.6066331433662</v>
       </c>
       <c r="R20">
-        <v>207.027888652668</v>
+        <v>410.426532573465</v>
       </c>
       <c r="S20">
-        <v>0.07575861019775879</v>
+        <v>0.1052506310978367</v>
       </c>
       <c r="T20">
-        <v>0.04408101600034216</v>
+        <v>0.06524871566962073</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H21">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I21">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J21">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>53.453339</v>
       </c>
       <c r="O21">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P21">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q21">
-        <v>29.03346616232467</v>
+        <v>58.30669727673383</v>
       </c>
       <c r="R21">
-        <v>174.200796973948</v>
+        <v>349.840183660403</v>
       </c>
       <c r="S21">
-        <v>0.04249736709379379</v>
+        <v>0.05980916143142653</v>
       </c>
       <c r="T21">
-        <v>0.03709137048469822</v>
+        <v>0.05561682996062065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H22">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I22">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J22">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N22">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O22">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P22">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q22">
-        <v>21.71665217000067</v>
+        <v>87.70382195101016</v>
       </c>
       <c r="R22">
-        <v>130.299913020004</v>
+        <v>526.222931706061</v>
       </c>
       <c r="S22">
-        <v>0.03178747360569561</v>
+        <v>0.08996379987576779</v>
       </c>
       <c r="T22">
-        <v>0.02774385899435182</v>
+        <v>0.08365777483836795</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H23">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I23">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J23">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N23">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O23">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P23">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q23">
-        <v>27.468265215054</v>
+        <v>43.0887141669715</v>
       </c>
       <c r="R23">
-        <v>109.873060860216</v>
+        <v>172.354856667886</v>
       </c>
       <c r="S23">
-        <v>0.04020632410017317</v>
+        <v>0.04419903684912259</v>
       </c>
       <c r="T23">
-        <v>0.02339451068793641</v>
+        <v>0.02740059948484969</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H24">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I24">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J24">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N24">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O24">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P24">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q24">
-        <v>38.35391228489867</v>
+        <v>16.904275446105</v>
       </c>
       <c r="R24">
-        <v>230.123473709392</v>
+        <v>101.42565267663</v>
       </c>
       <c r="S24">
-        <v>0.05614005164735036</v>
+        <v>0.01733986979641233</v>
       </c>
       <c r="T24">
-        <v>0.0489985991387702</v>
+        <v>0.01612442921661883</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.629466</v>
+        <v>3.2723885</v>
       </c>
       <c r="H25">
-        <v>3.258932</v>
+        <v>6.544777</v>
       </c>
       <c r="I25">
-        <v>0.3037323888157666</v>
+        <v>0.3517517808678886</v>
       </c>
       <c r="J25">
-        <v>0.231357496249325</v>
+        <v>0.2807710333948734</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N25">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O25">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P25">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q25">
-        <v>39.17544667598267</v>
+        <v>34.30529292173301</v>
       </c>
       <c r="R25">
-        <v>235.052680055896</v>
+        <v>205.831757530398</v>
       </c>
       <c r="S25">
-        <v>0.05734256217099491</v>
+        <v>0.0351892818173226</v>
       </c>
       <c r="T25">
-        <v>0.05004814094322618</v>
+        <v>0.03272268422479555</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H26">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I26">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J26">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N26">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O26">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P26">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q26">
-        <v>11.6889766563145</v>
+        <v>31.198182584775</v>
       </c>
       <c r="R26">
-        <v>70.13385993788698</v>
+        <v>187.18909550865</v>
       </c>
       <c r="S26">
-        <v>0.01710959101944201</v>
+        <v>0.03200210654573457</v>
       </c>
       <c r="T26">
-        <v>0.01493311757274645</v>
+        <v>0.02975891444618324</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H27">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I27">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J27">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>53.453339</v>
       </c>
       <c r="O27">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P27">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q27">
-        <v>6.557020127711889</v>
+        <v>17.72851259053667</v>
       </c>
       <c r="R27">
-        <v>59.013181149407</v>
+        <v>159.55661331483</v>
       </c>
       <c r="S27">
-        <v>0.009597754875384648</v>
+        <v>0.01818534612643184</v>
       </c>
       <c r="T27">
-        <v>0.01256526837716256</v>
+        <v>0.02536596264892659</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H28">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I28">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J28">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N28">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O28">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P28">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q28">
-        <v>4.904565117684555</v>
+        <v>26.66689050002333</v>
       </c>
       <c r="R28">
-        <v>44.141086059161</v>
+        <v>240.00201450021</v>
       </c>
       <c r="S28">
-        <v>0.007178994856360882</v>
+        <v>0.02735405079146018</v>
       </c>
       <c r="T28">
-        <v>0.009398656062762686</v>
+        <v>0.03815499720758754</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H29">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I29">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J29">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N29">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O29">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P29">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q29">
-        <v>6.203529639949</v>
+        <v>13.10139053141</v>
       </c>
       <c r="R29">
-        <v>37.221177839694</v>
+        <v>78.60834318846</v>
       </c>
       <c r="S29">
-        <v>0.009080337666614806</v>
+        <v>0.01343899102276777</v>
       </c>
       <c r="T29">
-        <v>0.007925247881244756</v>
+        <v>0.01249698308197388</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H30">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I30">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J30">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N30">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O30">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P30">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q30">
-        <v>8.661982466114223</v>
+        <v>5.139849692699999</v>
       </c>
       <c r="R30">
-        <v>77.95784219502799</v>
+        <v>46.25864723429999</v>
       </c>
       <c r="S30">
-        <v>0.01267886674516809</v>
+        <v>0.00527229485396746</v>
       </c>
       <c r="T30">
-        <v>0.01659902398423505</v>
+        <v>0.007354098921740298</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3680043333333333</v>
+        <v>0.9949899999999999</v>
       </c>
       <c r="H31">
-        <v>1.104013</v>
+        <v>2.98497</v>
       </c>
       <c r="I31">
-        <v>0.06859599111481123</v>
+        <v>0.1069523085189122</v>
       </c>
       <c r="J31">
-        <v>0.07837588618194732</v>
+        <v>0.1280552586516997</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N31">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O31">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P31">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q31">
-        <v>8.847520682868224</v>
+        <v>10.43073687742</v>
       </c>
       <c r="R31">
-        <v>79.627686145814</v>
+        <v>93.87663189678</v>
       </c>
       <c r="S31">
-        <v>0.01295044595184079</v>
+        <v>0.01069951917855041</v>
       </c>
       <c r="T31">
-        <v>0.01695457230379583</v>
+        <v>0.01492430234528815</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H32">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I32">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J32">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>31.7631495</v>
+        <v>31.3552725</v>
       </c>
       <c r="N32">
-        <v>63.52629899999999</v>
+        <v>62.710545</v>
       </c>
       <c r="O32">
-        <v>0.2494255238736205</v>
+        <v>0.299218473999331</v>
       </c>
       <c r="P32">
-        <v>0.1905320411699034</v>
+        <v>0.2323911939229701</v>
       </c>
       <c r="Q32">
-        <v>30.475789050765</v>
+        <v>22.57107200561</v>
       </c>
       <c r="R32">
-        <v>182.85473430459</v>
+        <v>135.42643203366</v>
       </c>
       <c r="S32">
-        <v>0.04460854889052219</v>
+        <v>0.02315269003930626</v>
       </c>
       <c r="T32">
-        <v>0.03893399348791104</v>
+        <v>0.02152979901788833</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H33">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I33">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J33">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>53.453339</v>
       </c>
       <c r="O33">
-        <v>0.139917139754138</v>
+        <v>0.1700322917594261</v>
       </c>
       <c r="P33">
-        <v>0.1603205907999899</v>
+        <v>0.1980860678117095</v>
       </c>
       <c r="Q33">
-        <v>17.09562505677667</v>
+        <v>12.82611681453022</v>
       </c>
       <c r="R33">
-        <v>153.86062551099</v>
+        <v>115.435051330772</v>
       </c>
       <c r="S33">
-        <v>0.025023503899733</v>
+        <v>0.01315662397164582</v>
       </c>
       <c r="T33">
-        <v>0.03276047849935507</v>
+        <v>0.01835161288273052</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H34">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I34">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J34">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>13.32746566666667</v>
+        <v>26.80116433333333</v>
       </c>
       <c r="N34">
-        <v>39.982397</v>
+        <v>80.403493</v>
       </c>
       <c r="O34">
-        <v>0.1046561867492399</v>
+        <v>0.2557593302123367</v>
       </c>
       <c r="P34">
-        <v>0.1199177007191215</v>
+        <v>0.2979572850761729</v>
       </c>
       <c r="Q34">
-        <v>12.78730348319667</v>
+        <v>19.29280027790711</v>
       </c>
       <c r="R34">
-        <v>115.08573134877</v>
+        <v>173.635202501164</v>
       </c>
       <c r="S34">
-        <v>0.01871725295308817</v>
+        <v>0.01978994283982628</v>
       </c>
       <c r="T34">
-        <v>0.02450440855100144</v>
+        <v>0.02760414607505311</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H35">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I35">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J35">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.857219</v>
+        <v>13.167359</v>
       </c>
       <c r="N35">
-        <v>33.714438</v>
+        <v>26.334718</v>
       </c>
       <c r="O35">
-        <v>0.1323741740449054</v>
+        <v>0.1256540528098219</v>
       </c>
       <c r="P35">
-        <v>0.1011184468504321</v>
+        <v>0.09759054968577822</v>
       </c>
       <c r="Q35">
-        <v>16.17399591393</v>
+        <v>9.478514597910667</v>
       </c>
       <c r="R35">
-        <v>97.04397548358001</v>
+        <v>56.871087587464</v>
       </c>
       <c r="S35">
-        <v>0.02367448095535173</v>
+        <v>0.009722759754783494</v>
       </c>
       <c r="T35">
-        <v>0.02066290229721364</v>
+        <v>0.009041241560454723</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H36">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I36">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J36">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>23.53771866666667</v>
+        <v>5.16573</v>
       </c>
       <c r="N36">
-        <v>70.613156</v>
+        <v>15.49719</v>
       </c>
       <c r="O36">
-        <v>0.184833931824778</v>
+        <v>0.04929575552859776</v>
       </c>
       <c r="P36">
-        <v>0.211787385034485</v>
+        <v>0.05742910520951641</v>
       </c>
       <c r="Q36">
-        <v>22.58373492910667</v>
+        <v>3.71854729668</v>
       </c>
       <c r="R36">
-        <v>203.25361436196</v>
+        <v>33.46692567012</v>
       </c>
       <c r="S36">
-        <v>0.03305665497413463</v>
+        <v>0.003814367919039629</v>
       </c>
       <c r="T36">
-        <v>0.04327738588808466</v>
+        <v>0.005320498905599192</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.95947</v>
+        <v>0.7198493333333333</v>
       </c>
       <c r="H37">
-        <v>2.87841</v>
+        <v>2.159548</v>
       </c>
       <c r="I37">
-        <v>0.1788451646717781</v>
+        <v>0.07737720779686223</v>
       </c>
       <c r="J37">
-        <v>0.2043435489844586</v>
+        <v>0.09264464222781496</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>24.04189266666667</v>
+        <v>10.483258</v>
       </c>
       <c r="N37">
-        <v>72.12567800000001</v>
+        <v>31.449774</v>
       </c>
       <c r="O37">
-        <v>0.1887930437533183</v>
+        <v>0.1000400956904865</v>
       </c>
       <c r="P37">
-        <v>0.2163238354260682</v>
+        <v>0.1165457982938529</v>
       </c>
       <c r="Q37">
-        <v>23.06747475688667</v>
+        <v>7.546366282461334</v>
       </c>
       <c r="R37">
-        <v>207.60727281198</v>
+        <v>67.917296542152</v>
       </c>
       <c r="S37">
-        <v>0.03376472299894842</v>
+        <v>0.007740823272260755</v>
       </c>
       <c r="T37">
-        <v>0.04420438026089273</v>
+        <v>0.01079734378608909</v>
       </c>
     </row>
   </sheetData>
